--- a/biology/Biochimie/Cyclooxygénase_3/Cyclooxygénase_3.xlsx
+++ b/biology/Biochimie/Cyclooxygénase_3/Cyclooxygénase_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cyclooxyg%C3%A9nase_3</t>
+          <t>Cyclooxygénase_3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cyclooxygénase 3, ou COX-3, est l'une des trois isoenzymes de la cyclooxygénase, codée chez l'homme par le gène PTGS1 sur le chromosome 1, gène qui code également la cyclooxygénase 1 (COX-1) ; la différence est que la COX-3 conserve un intron qui est éliminé dans la COX-1[1],[2]. La protéine COX-3 n'est pas une enzyme fonctionnelle chez l'homme, tandis que les deux autres cyclooxygénases, COX-1 et COX-2, convertissent l'acide dihomo-γ-linolénique et l'acide arachidonique en prostaglandines, et sont les cibles des anti-inflammatoires non stéroïdiens (AINS).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cyclooxygénase 3, ou COX-3, est l'une des trois isoenzymes de la cyclooxygénase, codée chez l'homme par le gène PTGS1 sur le chromosome 1, gène qui code également la cyclooxygénase 1 (COX-1) ; la différence est que la COX-3 conserve un intron qui est éliminé dans la COX-1,. La protéine COX-3 n'est pas une enzyme fonctionnelle chez l'homme, tandis que les deux autres cyclooxygénases, COX-1 et COX-2, convertissent l'acide dihomo-γ-linolénique et l'acide arachidonique en prostaglandines, et sont les cibles des anti-inflammatoires non stéroïdiens (AINS).
 </t>
         </is>
       </c>
